--- a/Daily/data/Ticker.xlsx
+++ b/Daily/data/Ticker.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/PycharmProjects/India-TS/Daily/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611498F1-EB7B-164E-A40B-EA49633B14D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B54EA-7AD5-2744-A0C3-EC0A5A0157A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticker" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="598">
   <si>
     <t>Ticker</t>
   </si>
@@ -1811,6 +1810,15 @@
   </si>
   <si>
     <t>JGCHEM</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>SWIGGY</t>
+  </si>
+  <si>
+    <t>Purvan</t>
   </si>
 </sst>
 </file>
@@ -2106,7 +2114,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="A595" sqref="A595"/>
+      <selection activeCell="C593" sqref="C593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5090,16 +5098,24 @@
       </c>
     </row>
     <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A596" s="1"/>
+      <c r="A596" s="1" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A597" s="1"/>
+      <c r="A597" s="1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A598" s="1"/>
+      <c r="A598" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A599" s="1"/>
+      <c r="A599" s="1" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A600" s="1"/>
@@ -5559,19 +5575,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Daily/data/Ticker.xlsx
+++ b/Daily/data/Ticker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/PycharmProjects/India-TS/Daily/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B54EA-7AD5-2744-A0C3-EC0A5A0157A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C1662C-C6AC-694E-AC34-F15335215298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticker" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="604">
   <si>
     <t>Ticker</t>
   </si>
@@ -1819,6 +1819,24 @@
   </si>
   <si>
     <t>Purvan</t>
+  </si>
+  <si>
+    <t>PGEL</t>
+  </si>
+  <si>
+    <t>NIFTY</t>
+  </si>
+  <si>
+    <t>BANKNIFTY</t>
+  </si>
+  <si>
+    <t>IREDA</t>
+  </si>
+  <si>
+    <t>GMRAIRPORT</t>
+  </si>
+  <si>
+    <t>ETERNAL</t>
   </si>
 </sst>
 </file>
@@ -2111,10 +2129,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A1000"/>
+  <dimension ref="A1:A999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="C593" sqref="C593"/>
+    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
+      <selection activeCell="C607" sqref="C607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5109,107 +5127,75 @@
     </row>
     <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A598" s="1" t="s">
-        <v>389</v>
+        <v>597</v>
       </c>
     </row>
     <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A599" s="1" t="s">
-        <v>597</v>
+      <c r="A599" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A600" s="1"/>
+      <c r="A600" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A601" s="1"/>
+      <c r="A601" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A602" s="1"/>
+      <c r="A602" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A603" s="1"/>
+      <c r="A603" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A604" s="1"/>
-    </row>
-    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A605" s="1"/>
-    </row>
-    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A606" s="1"/>
-    </row>
-    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A607" s="1"/>
-    </row>
-    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A608" s="1"/>
-    </row>
-    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A609" s="1"/>
-    </row>
-    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A610" s="1"/>
-    </row>
-    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A611" s="1"/>
-    </row>
-    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A612" s="1"/>
-    </row>
-    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A613" s="1"/>
-    </row>
-    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A614" s="1"/>
-    </row>
-    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A615" s="1"/>
-    </row>
-    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A616" s="1"/>
-    </row>
-    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A617" s="1"/>
-    </row>
-    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A618" s="1"/>
-    </row>
-    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A619" s="1"/>
-    </row>
-    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A620" s="1"/>
-    </row>
-    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A621" s="1"/>
-    </row>
-    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A622" s="1"/>
-    </row>
-    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A623" s="1"/>
-    </row>
-    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A624" s="1"/>
-    </row>
-    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A625" s="1"/>
-    </row>
-    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="A604" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5569,7 +5555,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Daily/data/Ticker.xlsx
+++ b/Daily/data/Ticker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/PycharmProjects/India-TS/Daily/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C1662C-C6AC-694E-AC34-F15335215298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA12DE6F-7121-F74C-9956-3C15A2C3D5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="607">
   <si>
     <t>Ticker</t>
   </si>
@@ -1837,6 +1837,15 @@
   </si>
   <si>
     <t>ETERNAL</t>
+  </si>
+  <si>
+    <t>SILVERBEES</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>SILVER1</t>
   </si>
 </sst>
 </file>
@@ -2131,8 +2140,8 @@
   </sheetPr>
   <dimension ref="A1:A999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
-      <selection activeCell="C607" sqref="C607"/>
+    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="C606" sqref="C606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5160,9 +5169,21 @@
         <v>603</v>
       </c>
     </row>
-    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A605" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A606" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A607" t="s">
+        <v>606</v>
+      </c>
+    </row>
     <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Daily/data/Ticker.xlsx
+++ b/Daily/data/Ticker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maverick/PycharmProjects/India-TS/Daily/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA12DE6F-7121-F74C-9956-3C15A2C3D5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D97442-EF31-E840-8FFE-0A8046A7BF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="609">
   <si>
     <t>Ticker</t>
   </si>
@@ -1846,6 +1846,12 @@
   </si>
   <si>
     <t>SILVER1</t>
+  </si>
+  <si>
+    <t>OLAELEC</t>
+  </si>
+  <si>
+    <t>NSDL</t>
   </si>
 </sst>
 </file>
@@ -2141,7 +2147,7 @@
   <dimension ref="A1:A999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="C606" sqref="C606"/>
+      <selection activeCell="A609" sqref="A609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5184,23 +5190,31 @@
         <v>606</v>
       </c>
     </row>
-    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A608" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A609" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
